--- a/output_analysis/START_4_SEC_1.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_1.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,535 +434,490 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3 19 26 30 53 242</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9 30 65 77 147 245</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5 24 34 104 106 223</t>
-        </is>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>38 43 82 91 101 171</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
         <v>94</v>
       </c>
       <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40 56 69 80 98 107</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
         <v>98</v>
       </c>
-      <c r="G3" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="F4" t="n">
+        <v>29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>44 104 115 123</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>53</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>85 94 114 143 183 214</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>99 111 124 134 159 220</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>181 213 227 243 251 274</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4 24 34 39 63</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8 17 62 131 198 206</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27 35 46 74 76 170</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>90</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>64 75</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="D13" t="n">
+        <v>53</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6 40 63 146 262</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>94</v>
-      </c>
-      <c r="E4" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>78 87 106 144 165 186</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
         <v>90</v>
       </c>
-      <c r="F4" t="n">
-        <v>94</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2 22 26 41 61 86 136</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>139 147 184 224 281</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>83</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>79 92 162 169</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="D16" t="n">
+        <v>52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>84</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>182 233 240 274</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>94</v>
-      </c>
-      <c r="E6" t="n">
-        <v>86</v>
-      </c>
-      <c r="F6" t="n">
-        <v>94</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>148 157 176 205 221</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="D17" t="n">
+        <v>89</v>
+      </c>
+      <c r="E17" t="n">
+        <v>98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>67 88 95 126 235</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151 164 215 229 300</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>92</v>
+      </c>
+      <c r="E18" t="n">
         <v>100</v>
       </c>
-      <c r="E7" t="n">
-        <v>77</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>68 96 129 142</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>98</v>
-      </c>
-      <c r="E8" t="n">
-        <v>87</v>
-      </c>
-      <c r="F8" t="n">
-        <v>98</v>
-      </c>
-      <c r="G8" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>100 120 161 193</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>98</v>
-      </c>
-      <c r="E9" t="n">
-        <v>76</v>
-      </c>
-      <c r="F9" t="n">
-        <v>98</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>191 205 215 219 288</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>190 204 260 290</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>61</v>
+      </c>
+      <c r="E19" t="n">
         <v>72</v>
       </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>197 213 253 283</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>92</v>
-      </c>
-      <c r="E11" t="n">
-        <v>67</v>
-      </c>
-      <c r="F11" t="n">
-        <v>92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15 20 41 54 62 101 199</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>32 43 56 189 267</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>94</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>80 94 114 117 140 192</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>72</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>85 87 118 123 194</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>94</v>
-      </c>
-      <c r="E15" t="n">
-        <v>85</v>
-      </c>
-      <c r="F15" t="n">
-        <v>94</v>
-      </c>
-      <c r="G15" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>130 144 166 177 201 211</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>98</v>
-      </c>
-      <c r="E16" t="n">
-        <v>93</v>
-      </c>
-      <c r="F16" t="n">
-        <v>98</v>
-      </c>
-      <c r="G16" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>39 45 71 111</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>74</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>72 79 110 136 209</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>86</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>75 115 143 257</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>98</v>
-      </c>
-      <c r="E19" t="n">
-        <v>76</v>
-      </c>
       <c r="F19" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>116 210 241 272</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" t="n">
-        <v>66</v>
-      </c>
-      <c r="F20" t="n">
-        <v>96</v>
-      </c>
-      <c r="G20" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>217 228 238 263 291</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="n">
-        <v>82</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
